--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E4FE1-EAFB-407A-A046-C75357A4D1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0358A096-07C2-4A41-AE41-49B8ED02DFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0CCE4925-3B03-476B-B7CB-6475AF2C4D51}"/>
   </bookViews>
@@ -707,7 +707,7 @@
       </c>
       <c r="B2" s="10">
         <f>'1-A-R'!$D$1</f>
-        <v>776</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10">
         <f>'1-B-R'!$D$1</f>
@@ -1981,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="D1">
-        <v>776</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0358A096-07C2-4A41-AE41-49B8ED02DFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E9059-3B43-4619-8D6D-D44EF0F28B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0CCE4925-3B03-476B-B7CB-6475AF2C4D51}"/>
   </bookViews>
@@ -707,7 +707,7 @@
       </c>
       <c r="B2" s="10">
         <f>'1-A-R'!$D$1</f>
-        <v>6</v>
+        <v>776</v>
       </c>
       <c r="C2" s="10">
         <f>'1-B-R'!$D$1</f>
@@ -1981,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="D1">
-        <v>6</v>
+        <v>776</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E9059-3B43-4619-8D6D-D44EF0F28B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA519DE7-C421-4567-BB59-39EAF4810796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0CCE4925-3B03-476B-B7CB-6475AF2C4D51}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -1958,10 +1958,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE54B524-2C50-4E6A-B5CD-C3B977ECFC66}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,26 +2007,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>296001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" location="Title!A1" display="Click here to return" xr:uid="{9C51AD95-256B-426E-916B-D0B0FE6A573F}"/>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05688058-194E-4BD8-A86F-4E1276BB6EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CE39CF-49BD-4299-9E59-62D0E695D9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" firstSheet="26" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="13">
   <si>
     <t>Cage No.</t>
   </si>
@@ -152,33 +152,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>GRD</t>
-  </si>
-  <si>
-    <t>T-RAD-B</t>
-  </si>
-  <si>
-    <t>HTH</t>
-  </si>
-  <si>
-    <t>Sheet-2</t>
-  </si>
-  <si>
-    <t>211/1</t>
-  </si>
-  <si>
-    <t>RND Spigot</t>
-  </si>
-  <si>
-    <t>TDFL STRT</t>
-  </si>
-  <si>
-    <t>T-Taper</t>
   </si>
 </sst>
 </file>
@@ -611,7 +584,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +609,7 @@
       </c>
       <c r="B2" s="10">
         <f>'1-A-R'!$D$1</f>
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="C2" s="10">
         <f>'1-B-R'!$D$1</f>
@@ -701,15 +674,15 @@
       </c>
       <c r="B5" s="10">
         <f>'4-A-R'!$D$1</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
         <f>'4-B-R'!$D$1</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D5" s="10">
         <f>'4-C-R'!$D$1</f>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1274,10 +1247,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,48 +1269,28 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>967001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1352,10 +1305,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,71 +1327,28 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>296001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>296001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>211</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1453,10 +1363,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,51 +1385,28 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>108</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>296001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>223</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1772,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1904,9 +1791,6 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>776</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +2641,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F7"/>
     </sheetView>
   </sheetViews>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7054046-0D18-4A4F-8D8F-D83799E425E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DE51CF-9DCF-4595-A684-9F1E861240E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" firstSheet="33" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="35">
   <si>
     <t>Cage No.</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t xml:space="preserve"> L-9</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve"> 62</t>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve"> TDFL-LPE STRT</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -649,7 +649,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -882,7 +884,7 @@
       </c>
       <c r="B13" s="3">
         <f>'2-A-B'!$D$1</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3">
         <f>'2-B-B'!$D$1</f>
@@ -1370,14 +1372,11 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1390,14 +1389,11 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1410,14 +1406,11 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1430,14 +1423,11 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1450,14 +1440,11 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1470,14 +1457,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1490,14 +1474,11 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1510,14 +1491,11 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1530,14 +1508,11 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1550,14 +1525,11 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1570,14 +1542,11 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
       <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1590,14 +1559,11 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
       <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2716,9 +2682,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3062,10 +3026,10 @@
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet35"/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3084,28 +3048,271 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="D1">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DE51CF-9DCF-4595-A684-9F1E861240E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F521577-78E9-494E-BF52-482C8C6998A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" firstSheet="33" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="13">
   <si>
     <t>Cage No.</t>
   </si>
@@ -152,72 +152,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>WD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 62</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TDFL STRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T-RAD-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T-Taper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T-Shoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 250 Dia 100 Deep</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TDFL-LPE STRT</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -649,9 +583,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -740,7 +672,7 @@
       </c>
       <c r="B5" s="10">
         <f>'4-A-R'!$D$1</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
         <f>'4-B-R'!$D$1</f>
@@ -884,7 +816,7 @@
       </c>
       <c r="B13" s="3">
         <f>'2-A-B'!$D$1</f>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
         <f>'2-B-B'!$D$1</f>
@@ -1199,9 +1131,8 @@
     <hyperlink ref="B12" location="'1-A-B'!A1" display="'1-A-B'!A1" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="C12" location="'1-B-B'!A1" display="'1-B-B'!A1" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="D12" location="'1-C-B'!A1" display="'1-C-B'!A1" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B13" location="'1-A-B'!A1" display="'1-A-B'!A1" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C13" location="'1-B-B'!A1" display="'1-B-B'!A1" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D13" location="'1-C-B'!A1" display="'1-C-B'!A1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C13" location="'2-B-B'!A1" display="'2-B-B'!A1" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D13" location="'2-C-B'!A1" display="'2-C-B'!A1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="B14" location="'3-A-B'!A1" display="'3-A-B'!A1" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C14" location="'3-B-B'!A1" display="'3-B-B'!A1" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="D14" location="'3-C-B'!A1" display="'3-C-B'!A1" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
@@ -1246,6 +1177,7 @@
     <hyperlink ref="C30" location="'9-B-G'!A1" display="'9-B-G'!A1" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="B31" location="'10-A-G'!A1" display="'10-A-G'!A1" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="C31" location="'10-B-G'!A1" display="'10-B-G'!A1" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B13" location="'2-A-B'!A1" display="'2-A-B'!A1" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1258,7 +1190,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,7 +1245,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1335,235 +1267,28 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1306,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,7 +1364,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1697,7 +1422,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,7 +1480,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1813,7 +1538,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,7 +1596,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1929,7 +1654,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1987,7 +1712,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,7 +1770,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2103,7 +1828,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,7 +1886,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,7 +1944,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,7 +2002,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2335,7 +2060,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2393,7 +2118,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2451,7 +2176,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2509,7 +2234,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2625,7 +2350,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2682,7 +2407,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2739,7 +2466,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2797,7 +2524,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2913,7 +2640,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3026,10 +2753,10 @@
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet35"/>
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3048,271 +2775,28 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3562,7 +3046,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4200,7 +3684,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4838,7 +4322,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5476,7 +4960,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6114,7 +5598,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6288,7 +5772,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\Storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C6DAC0-6F56-4102-9578-07882EB0D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217993C-9C10-4BB5-B6FF-8236876E62C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="13">
   <si>
     <t>Cage No.</t>
   </si>
@@ -152,36 +152,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>WD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L-9</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T-Taper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T-RAD-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 62</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TDFL STRT</t>
   </si>
 </sst>
 </file>
@@ -613,7 +583,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -637,7 +609,7 @@
       </c>
       <c r="B2" s="10">
         <f>'1-A-R'!$D$1</f>
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C2" s="10">
         <f>'1-B-R'!$D$1</f>
@@ -1161,9 +1133,8 @@
     <hyperlink ref="B12" location="'1-A-B'!A1" display="'1-A-B'!A1" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="C12" location="'1-B-B'!A1" display="'1-B-B'!A1" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="D12" location="'1-C-B'!A1" display="'1-C-B'!A1" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B13" location="'2-A-B'!A1" display="'2-A-B'!A1" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C13" location="'2-B-B'!A1" display="'2-B-B'!A1" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D13" location="'2-C-B'!A1" display="'2-C-B'!A1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C13" location="'1-B-B'!A1" display="'1-B-B'!A1" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D13" location="'1-C-B'!A1" display="'1-C-B'!A1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="B14" location="'3-A-B'!A1" display="'3-A-B'!A1" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="C14" location="'3-B-B'!A1" display="'3-B-B'!A1" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="D14" location="'3-C-B'!A1" display="'3-C-B'!A1" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
@@ -1208,6 +1179,7 @@
     <hyperlink ref="C30" location="'9-B-G'!A1" display="'9-B-G'!A1" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="B31" location="'10-A-G'!A1" display="'10-A-G'!A1" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="C31" location="'10-B-G'!A1" display="'10-B-G'!A1" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B13" location="'2-A-B'!A1" display="'2-A-B'!A1" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1220,7 +1192,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,7 +1424,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1510,7 +1482,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1540,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,7 +1598,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1684,7 +1656,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1742,7 +1714,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1797,10 +1769,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1819,91 +1791,28 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +1830,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,7 +1888,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2037,7 +1946,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,7 +2004,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2153,7 +2062,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2211,7 +2120,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2269,7 +2178,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2327,7 +2236,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2443,7 +2352,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2501,7 +2410,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2559,7 +2468,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2617,7 +2526,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3139,7 +3048,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3777,7 +3686,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4415,7 +4324,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5053,7 +4962,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5691,7 +5600,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5865,7 +5774,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217993C-9C10-4BB5-B6FF-8236876E62C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5685C428-A053-40BC-B842-44F62FA66256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" firstSheet="25" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="17">
   <si>
     <t>Cage No.</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SM-17/6/24</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-Taper</t>
   </si>
 </sst>
 </file>
@@ -583,8 +595,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +813,7 @@
       </c>
       <c r="B12" s="3">
         <f>'1-A-B'!$D$1</f>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="C12" s="3">
         <f>'1-B-B'!$D$1</f>
@@ -1133,6 +1145,7 @@
     <hyperlink ref="B12" location="'1-A-B'!A1" display="'1-A-B'!A1" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="C12" location="'1-B-B'!A1" display="'1-B-B'!A1" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="D12" location="'1-C-B'!A1" display="'1-C-B'!A1" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B13" location="'2-A-B'!A1" display="'2-A-B'!A1" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="C13" location="'1-B-B'!A1" display="'1-B-B'!A1" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="D13" location="'1-C-B'!A1" display="'1-C-B'!A1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="B14" location="'3-A-B'!A1" display="'3-A-B'!A1" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
@@ -1179,7 +1192,6 @@
     <hyperlink ref="C30" location="'9-B-G'!A1" display="'9-B-G'!A1" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="B31" location="'10-A-G'!A1" display="'10-A-G'!A1" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="C31" location="'10-B-G'!A1" display="'10-B-G'!A1" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B13" location="'2-A-B'!A1" display="'2-A-B'!A1" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2581,11 +2593,9 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2603,28 +2613,71 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="D1">
+        <v>228</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>466001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>466001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIMBLE\Desktop\Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5685C428-A053-40BC-B842-44F62FA66256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE87D244-7DF3-4517-9C2B-0746398346DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" firstSheet="25" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="13">
   <si>
     <t>Cage No.</t>
   </si>
@@ -152,18 +152,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SM-17/6/24</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> T-Taper</t>
   </si>
 </sst>
 </file>
@@ -813,7 +801,7 @@
       </c>
       <c r="B12" s="3">
         <f>'1-A-B'!$D$1</f>
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
         <f>'1-B-B'!$D$1</f>
@@ -2593,9 +2581,11 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2613,71 +2603,28 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>228</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>466001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>466001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="25" activeTab="31" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" state="visible" r:id="rId1"/>
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1973,7 +1973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1999,6 +1999,9 @@
           <t>Cage No.</t>
         </is>
       </c>
+      <c r="D1" t="n">
+        <v>58</v>
+      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Click here to return</t>
@@ -2034,6 +2037,398 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
         </is>
       </c>
     </row>
@@ -3079,10 +3474,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -3105,9 +3500,6 @@
           <t>Cage No.</t>
         </is>
       </c>
-      <c r="D1" t="n">
-        <v>22</v>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Click here to return</t>
@@ -3143,454 +3535,6 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -6163,6 +6107,9 @@
           <t>Cage No.</t>
         </is>
       </c>
+      <c r="D1" t="n">
+        <v>85</v>
+      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Click here to return</t>
@@ -6198,6 +6145,454 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
         </is>
       </c>
     </row>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -1973,7 +1973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1999,8 +1999,1114 @@
           <t>Cage No.</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet23">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A8,"-",Title!B1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet24">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A8,"-",Title!C1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet25">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A8,"-",Title!D1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet26">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A9,"-",Title!B1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet27">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A9,"-",Title!C1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet28">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A9,"-",Title!D1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet29">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A10,"-",Title!B1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet30">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A10,"-",Title!C1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet31">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A10,"-",Title!D1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet32">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A11,"-",Title!B1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A2,"-",Title!C1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet33">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A11,"-",Title!C1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet34">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="11">
+        <f>_xlfn.TEXTJOIN(,,Title!A11,"-",Title!D1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet17">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="2">
+        <f>_xlfn.TEXTJOIN(,,Title!A2,"-",Title!B1)</f>
+        <v/>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cage No.</t>
+        </is>
+      </c>
       <c r="D1" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
@@ -2060,7 +3166,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2208,1224 +3314,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet23">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A8,"-",Title!B1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet24">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A8,"-",Title!C1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet25">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A8,"-",Title!D1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet26">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A9,"-",Title!B1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet27">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A9,"-",Title!C1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet28">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A9,"-",Title!D1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet29">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A10,"-",Title!B1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet30">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A10,"-",Title!C1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet31">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A10,"-",Title!D1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet32">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A11,"-",Title!B1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A2,"-",Title!C1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet33">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A11,"-",Title!C1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet34">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="11">
-        <f>_xlfn.TEXTJOIN(,,Title!A11,"-",Title!D1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet17">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="10.6640625" customWidth="1" style="13" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="2">
-        <f>_xlfn.TEXTJOIN(,,Title!A2,"-",Title!B1)</f>
-        <v/>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Cage No.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
@@ -5969,7 +5857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -5995,240 +5883,41 @@
           <t>Cage No.</t>
         </is>
       </c>
-      <c r="D1" t="n">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
         </is>
       </c>
     </row>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -3487,7 +3487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -3513,41 +3513,156 @@
           <t>Cage No.</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
+      <c r="D1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PITT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>466001</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SM-17/6/24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> T-Taper</t>
         </is>
       </c>
     </row>

--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" state="visible" r:id="rId1"/>
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1973,10 +1973,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
@@ -2068,62 +2068,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" location="Title!A1" display="Click here to return"/>
@@ -3166,7 +3110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -3192,184 +3136,41 @@
           <t>Cage No.</t>
         </is>
       </c>
-      <c r="D1" t="n">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Click here to return</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ref</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NC#</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Field 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Field 2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Item No.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-SQ-R-ET-ET</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TDFL STRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>466001</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-17/6/24</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-Taper</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PITT</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>114001</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SM-19352</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LVL-3 West P/R</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> T-SQ-R-ET-ET</t>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Click here to return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ref</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NC#</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Field 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Field 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Item No.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Description</t>
         </is>
       </c>
     </row>
